--- a/virtualmax.xlsx
+++ b/virtualmax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jh/Documents/YouTube/eCharts/eCharts-SyncYAxis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F4BB65-9460-D24A-A470-47677CC7D2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B14FBB-7BF8-F741-8381-DF284D51DA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="18880" xr2:uid="{0F07AFEA-578B-FB4E-BE4A-DFEE24606FFA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{0F07AFEA-578B-FB4E-BE4A-DFEE24606FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -100,85 +100,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -497,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC71BFD-EFEF-A04D-BE87-9996474B7DED}">
-  <dimension ref="A2:N10"/>
+  <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,13 +453,13 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="3"/>
       <c r="I2" t="s">
         <v>5</v>
       </c>
@@ -540,97 +472,87 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>-30</v>
       </c>
       <c r="D3" s="1">
         <f>B3-C3</f>
-        <v>7</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>880</v>
+      </c>
       <c r="F3" s="5">
         <f>IF(D3 &gt;0, B3/D3*D9, B9)</f>
-        <v>285.71428571428572</v>
-      </c>
-      <c r="G3" s="6">
-        <f>IF(D3 &gt;0, C3/D3*D9, C9)</f>
-        <v>85.714285714285708</v>
+        <v>579.54545454545462</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(D3 &gt;0, C3/D3*D9, 0)</f>
+        <v>-20.454545454545453</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <f>MAX(B3,F9,F7)</f>
-        <v>10.5</v>
+        <v>1026.6666666666667</v>
       </c>
       <c r="J3" s="1">
-        <f>MIN(C3,G7:G9)</f>
-        <v>-2.333333333333333</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+        <f>MIN(C3,G3:G7)</f>
+        <v>-203.07692307692309</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F4" s="5">
         <f>IF(D3 &gt;0, B3/D3*D6, B6)</f>
-        <v>107.14285714285714</v>
-      </c>
-      <c r="G4" s="6">
-        <f>IF(D3 &gt;0, C3/D3*D6, C6)</f>
-        <v>32.142857142857139</v>
-      </c>
-      <c r="I4">
-        <f>IF(H10&lt;0,I3,B3)</f>
-        <v>10.5</v>
-      </c>
-      <c r="J4">
-        <f>IF(H10&lt;0,J3,0)</f>
-        <v>-2.333333333333333</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+        <v>12.556818181818182</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IF(D3 &gt;0, C3/D3*D6, 0)</f>
+        <v>-0.44318181818181812</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>-25</v>
+        <v>-3</v>
       </c>
       <c r="D6" s="1">
         <f>B6-C6</f>
-        <v>75</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>13</v>
+      </c>
       <c r="F6" s="5">
         <f>IF(D6 &gt;0, B6/D6*D9, B9)</f>
-        <v>133.33333333333331</v>
-      </c>
-      <c r="G6" s="6">
+        <v>461.53846153846155</v>
+      </c>
+      <c r="G6" s="5">
         <f>IF(D6 &gt;0, C6/D6*D9, 0)</f>
-        <v>-66.666666666666657</v>
+        <v>-138.46153846153848</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
         <f>MAX(B6,F10,F4)</f>
-        <v>112.5</v>
+        <v>15.166666666666668</v>
       </c>
       <c r="J6" s="1">
         <f>MIN(C6,G10,G4)</f>
-        <v>-25</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+        <v>-3</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
@@ -639,81 +561,72 @@
       <c r="E7" s="1"/>
       <c r="F7" s="5">
         <f>IF(D6 &gt;0, B6/D6*D3, B3)</f>
-        <v>4.6666666666666661</v>
-      </c>
-      <c r="G7" s="6">
-        <f>IF(D6 &gt;0, C6/D6*D3, C3)</f>
-        <v>-2.333333333333333</v>
+        <v>676.92307692307691</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IF(D6 &gt;0, C6/D6*D3, 0)</f>
+        <v>-203.07692307692309</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
       </c>
       <c r="D9" s="1">
         <f>B9-C9</f>
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="5">
         <f>IF(D9 &gt; 0, B9/D9*D3, B3)</f>
-        <v>10.5</v>
-      </c>
-      <c r="G9" s="6">
-        <f>IF(D9 &gt;0, C9/D9*D3, C3)</f>
-        <v>3.5</v>
+        <v>1026.6666666666667</v>
+      </c>
+      <c r="G9" s="5">
+        <f>IF(D9 &gt;0, C9/D9*D3, 0)</f>
+        <v>146.66666666666666</v>
       </c>
       <c r="I9" s="1">
         <f>MAX(F3,B9,F6)</f>
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="J9" s="1">
         <f>MIN(G3,C9,G6)</f>
-        <v>-66.666666666666657</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+        <v>-138.46153846153848</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f>IF(D9 &gt; 0, B9/D9*D6, B6)</f>
-        <v>112.5</v>
-      </c>
-      <c r="G10" s="7">
-        <f>IF(D9 &gt;0, C9/D9*D6, C6)</f>
-        <v>37.5</v>
-      </c>
-      <c r="H10" s="1">
-        <f>MIN(C3,C6,C9)</f>
-        <v>-25</v>
-      </c>
-      <c r="I10">
-        <f>IF(H10&lt;0,I9,B9)</f>
-        <v>300</v>
-      </c>
-      <c r="J10">
-        <f>IF(H10&lt;0,J9,0)</f>
-        <v>-66.666666666666657</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+        <v>15.166666666666668</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IF(D9 &gt;0, C9/D9*D6, 0)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
